--- a/FREN/FREN.xlsx
+++ b/FREN/FREN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,22 +571,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20233</t>
+          <t>23952</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12:30pm</t>
+          <t>6:00pm</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2:45pm</t>
+          <t>8:15pm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -585,7 +600,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -602,18 +617,18 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Florescu, M</t>
+          <t>Nicolas, J</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -629,18 +644,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>1.166666666666667</v>
+        <v>1.833333333333333</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -654,36 +674,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20234</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8:30am</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10:45am</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
+          <t>29223</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -700,18 +708,18 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Florescu, M</t>
+          <t>Bordage, N</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -729,16 +737,25 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0.8333333333333333</v>
+        <v>3.833333333333333</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -747,44 +764,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FREN 101</t>
+          <t>FREN 102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23952</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6:00pm</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>8:15pm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
+          <t>20235</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LA213</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -798,18 +803,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Nicolas, J</t>
+          <t>Bordage, N</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -827,501 +832,20 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FREN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FREN 101</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29223</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7:00pm</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>9:15pm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>LA213</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Contact Instructor</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Nicolas, J</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>90</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>In Person</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
         <v>0.3333333333333333</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FREN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FREN 102</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20235</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8:30am</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10:45am</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Tu Th</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>REMOTE</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>25</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Contact Instructor</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Florescu, M</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>90</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FREN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FREN 201</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20236</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1:15pm</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>REMOTE</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Contact Instructor</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Florescu, M</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>90</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FREN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FREN 202</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20237</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>12:50pm</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>REMOTE</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>25</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Contact Instructor</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Florescu, M</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>72</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FREN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FREN 203</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20238</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>11:00am</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>12:50pm</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>M W</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>REMOTE</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>25</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Contact Instructor</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Florescu, M</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>72</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Books</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>0.2666666666666667</v>
+      <c r="W4" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/FREN/FREN.xlsx
+++ b/FREN/FREN.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>1.833333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -655,12 +655,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -750,12 +750,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
